--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-1 生产管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="18135" windowHeight="8355" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="18135" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="E-003" sheetId="1" r:id="rId1"/>
     <sheet name="吹膜批生产记录" sheetId="2" r:id="rId2"/>
+    <sheet name="20170817" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -828,22 +829,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SOP-MFG-301-R13 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜工序领料退料记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">SOP-MFG-301-R14 </t>
     </r>
     <r>
@@ -1112,6 +1097,232 @@
   </si>
   <si>
     <t>打印表格数量一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜工序领料退料记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R02 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜机组清洁记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R03 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜机组开机前确认表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜机组预热参数记录表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R05 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜工序领料退料记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R07 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜工序生产和检验记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜工序废品记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R09 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜供料系统运行记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜机组运行记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜岗位交接班记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜工序清场记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜工序物料平衡记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOP-MFG-301-R14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹膜生产日报表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹膜标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>批生产记录（吹膜）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1287,8 +1498,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,6 +1533,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="51">
     <border>
@@ -1948,7 +2186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2054,6 +2292,105 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2129,65 +2466,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2195,41 +2487,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2537,7 +2796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
@@ -2560,31 +2819,31 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="37" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
@@ -2599,42 +2858,42 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="17"/>
@@ -2652,7 +2911,7 @@
       <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="17"/>
@@ -2668,7 +2927,7 @@
       <c r="A9" s="15">
         <v>5</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="36" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="17"/>
@@ -2682,7 +2941,7 @@
       <c r="A10" s="15">
         <v>6</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="35" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="17"/>
@@ -2696,7 +2955,7 @@
       <c r="A11" s="15">
         <v>7</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="17"/>
@@ -2710,7 +2969,7 @@
       <c r="A12" s="15">
         <v>8</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="17"/>
@@ -2724,7 +2983,7 @@
       <c r="A13" s="15">
         <v>9</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="35" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="17"/>
@@ -2738,7 +2997,7 @@
       <c r="A14" s="15">
         <v>10</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="17"/>
@@ -2752,7 +3011,7 @@
       <c r="A15" s="15">
         <v>11</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="17"/>
@@ -2766,7 +3025,7 @@
       <c r="A16" s="15">
         <v>12</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="17"/>
@@ -2780,7 +3039,7 @@
       <c r="A17" s="15">
         <v>13</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="17"/>
@@ -2794,7 +3053,7 @@
       <c r="A18" s="15">
         <v>14</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="17"/>
@@ -2840,61 +3099,61 @@
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="80"/>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="80"/>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
@@ -2905,14 +3164,14 @@
       <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
       <c r="D30" s="33"/>
@@ -2943,72 +3202,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="3" max="3" width="10.875" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="22.5" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="21.25" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="18.5" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-    </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="C4" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
@@ -3017,14 +3277,14 @@
       <c r="B5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="93" t="s">
-        <v>82</v>
+      <c r="C5" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
@@ -3034,11 +3294,11 @@
         <v>50</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
@@ -3048,13 +3308,13 @@
         <v>52</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="88" t="s">
+      <c r="D7" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="48" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3066,14 +3326,14 @@
         <v>55</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="51" t="s">
         <v>79</v>
-      </c>
-      <c r="F8" s="92" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3095,7 +3355,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="1" t="s">
@@ -3109,7 +3369,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="1" t="s">
@@ -3123,7 +3383,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="1" t="s">
@@ -3137,7 +3397,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="1" t="s">
@@ -3151,7 +3411,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="1" t="s">
@@ -3165,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="1" t="s">
@@ -3179,7 +3439,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="1" t="s">
@@ -3193,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="1" t="s">
@@ -3207,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="1" t="s">
@@ -3221,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="1"/>
@@ -3233,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="1"/>
@@ -3241,74 +3501,74 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="59" t="s">
+      <c r="A22" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="45"/>
+      <c r="E22" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="57" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="80"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="55" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="80"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
@@ -3319,39 +3579,433 @@
       <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
+      <c r="A29" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
       <c r="D30" s="33"/>
       <c r="F30" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A22:C27"/>
+  <mergeCells count="12">
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:F27"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="22.5" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="21.25" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="18.5" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="64">
+        <v>5</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="64">
+        <v>6</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="65">
+        <v>7</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="65">
+        <v>8</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="65">
+        <v>9</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="65">
+        <v>10</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="65">
+        <v>11</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15">
+        <v>14</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15">
+        <v>15</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>16</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39">
+        <v>17</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="78"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="80"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="80"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="1.06" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="18135" windowHeight="8355" activeTab="2"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -1329,11 +1324,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2186,7 +2181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2391,6 +2386,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2424,12 +2449,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2442,30 +2461,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2489,6 +2484,54 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2550,7 +2593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2582,10 +2625,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2617,7 +2659,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2793,14 +2834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
@@ -2811,7 +2852,7 @@
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="21" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
@@ -2823,29 +2864,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-    </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A3" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="70" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-    </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -2858,10 +2899,10 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -2872,10 +2913,10 @@
       <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -2886,10 +2927,10 @@
       <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -2907,7 +2948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="20.25" customHeight="1">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -2923,7 +2964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="20.25" customHeight="1">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -2937,7 +2978,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="20.25" customHeight="1">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -2951,7 +2992,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="20.25" customHeight="1">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -2965,7 +3006,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="20.25" customHeight="1">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -2979,7 +3020,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -2993,7 +3034,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="20.25" customHeight="1">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -3007,7 +3048,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="20.25" customHeight="1">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -3021,7 +3062,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -3035,7 +3076,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="20.25" customHeight="1">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -3049,7 +3090,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="20.25" customHeight="1">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -3063,7 +3104,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="20.25" customHeight="1">
       <c r="A19" s="15">
         <v>15</v>
       </c>
@@ -3075,7 +3116,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="20.25" customHeight="1">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -3087,7 +3128,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -3095,67 +3136,67 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="20.25" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="78"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="88"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="76"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.25" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="80"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="69"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.25" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="76"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.25" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="80"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="69"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.15">
+      <c r="D27" s="74"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+    </row>
+    <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -3163,28 +3204,22 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="87" t="s">
+    <row r="29" spans="1:6" ht="19.5">
+      <c r="A29" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-    </row>
-    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.5">
       <c r="D30" s="33"/>
       <c r="F30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E24:F25"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -3192,6 +3227,12 @@
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E24:F25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3201,14 +3242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
@@ -3220,7 +3261,7 @@
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="21" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>72</v>
       </c>
@@ -3232,29 +3273,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A2" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-    </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A3" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="95" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="96"/>
       <c r="F3" s="97"/>
     </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
         <v>80</v>
       </c>
@@ -3270,7 +3311,7 @@
       <c r="E4" s="98"/>
       <c r="F4" s="99"/>
     </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -3283,10 +3324,10 @@
       <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -3300,7 +3341,7 @@
       <c r="E6" s="93"/>
       <c r="F6" s="94"/>
     </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -3318,7 +3359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="20.25" customHeight="1">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -3336,7 +3377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="20.25" customHeight="1">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -3350,7 +3391,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="20.25" customHeight="1">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -3364,7 +3405,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="20.25" customHeight="1">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -3378,7 +3419,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="20.25" customHeight="1">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -3392,7 +3433,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -3406,7 +3447,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="20.25" customHeight="1">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -3420,7 +3461,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="20.25" customHeight="1">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -3434,7 +3475,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="20.25" customHeight="1">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -3448,7 +3489,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="20.25" customHeight="1">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -3462,7 +3503,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="20.25" customHeight="1">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -3476,7 +3517,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="20.25" customHeight="1">
       <c r="A19" s="15">
         <v>15</v>
       </c>
@@ -3488,7 +3529,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="20.25" customHeight="1">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -3500,7 +3541,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="39"/>
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
@@ -3508,69 +3549,69 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="54" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="78"/>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="88"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="76"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59"/>
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="80"/>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="69"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="76"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="80"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="69"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.15">
+      <c r="D27" s="74"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+    </row>
+    <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -3578,7 +3619,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="19.5">
       <c r="A29" s="53" t="s">
         <v>66</v>
       </c>
@@ -3588,24 +3629,24 @@
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
     </row>
-    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="19.5">
       <c r="D30" s="33"/>
       <c r="F30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:F27"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3615,14 +3656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
@@ -3634,7 +3675,7 @@
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="21" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>72</v>
       </c>
@@ -3646,7 +3687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
       <c r="A2" s="100" t="s">
         <v>96</v>
       </c>
@@ -3656,19 +3697,19 @@
       <c r="E2" s="100"/>
       <c r="F2" s="100"/>
     </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A3" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="95" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="96"/>
       <c r="F3" s="97"/>
     </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
         <v>80</v>
       </c>
@@ -3684,7 +3725,7 @@
       <c r="E4" s="98"/>
       <c r="F4" s="99"/>
     </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -3697,10 +3738,10 @@
       <c r="D5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -3714,7 +3755,7 @@
       <c r="E6" s="93"/>
       <c r="F6" s="94"/>
     </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -3732,7 +3773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="20.25" customHeight="1">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -3740,17 +3781,11 @@
         <v>85</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1">
       <c r="A9" s="64">
         <v>5</v>
       </c>
@@ -3758,13 +3793,11 @@
         <v>86</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1">
       <c r="A10" s="64">
         <v>6</v>
       </c>
@@ -3772,13 +3805,11 @@
         <v>57</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="113"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1">
       <c r="A11" s="65">
         <v>7</v>
       </c>
@@ -3786,13 +3817,11 @@
         <v>87</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1">
       <c r="A12" s="65">
         <v>8</v>
       </c>
@@ -3800,13 +3829,11 @@
         <v>88</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="113"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="65">
         <v>9</v>
       </c>
@@ -3814,13 +3841,11 @@
         <v>89</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="113"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1">
       <c r="A14" s="65">
         <v>10</v>
       </c>
@@ -3828,13 +3853,11 @@
         <v>90</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="113"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1">
       <c r="A15" s="65">
         <v>11</v>
       </c>
@@ -3842,13 +3865,11 @@
         <v>91</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -3856,13 +3877,11 @@
         <v>92</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="113"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -3870,13 +3889,11 @@
         <v>93</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" customHeight="1">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -3884,13 +3901,11 @@
         <v>94</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="113"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1">
       <c r="A19" s="15">
         <v>15</v>
       </c>
@@ -3898,11 +3913,11 @@
         <v>76</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="113"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -3910,11 +3925,11 @@
         <v>77</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="39">
         <v>17</v>
       </c>
@@ -3922,86 +3937,87 @@
         <v>95</v>
       </c>
       <c r="C21" s="41"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="92" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="78"/>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="88"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="90" t="s">
+      <c r="B24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="80"/>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="69"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="88" t="s">
+      <c r="B26" s="103"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="80"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="69"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B22:C27"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:F27"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
@@ -2181,7 +2181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2386,12 +2386,87 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2416,51 +2491,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2482,56 +2512,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2899,8 +2908,8 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A5" s="15">
@@ -2913,8 +2922,8 @@
       <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -3140,7 +3149,7 @@
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="102" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="87" t="s">
@@ -3152,49 +3161,49 @@
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="69"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="90"/>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3205,14 +3214,14 @@
       <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="19.5">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
     </row>
     <row r="30" spans="1:6" ht="19.5">
       <c r="D30" s="33"/>
@@ -3220,6 +3229,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E24:F25"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -3227,12 +3242,6 @@
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E24:F25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3289,11 +3298,11 @@
       </c>
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3308,8 +3317,8 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
@@ -3324,8 +3333,8 @@
       <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -3338,8 +3347,8 @@
       <c r="D6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3555,7 +3564,7 @@
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="102" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="87" t="s">
@@ -3567,49 +3576,49 @@
       <c r="A23" s="57"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59"/>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="69"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="90"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3635,18 +3644,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:F27"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:F27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3659,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -3688,14 +3697,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
       <c r="A3" s="85" t="s">
@@ -3703,11 +3712,11 @@
       </c>
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3722,8 +3731,8 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
@@ -3732,14 +3741,14 @@
       <c r="B5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="117" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -3748,12 +3757,12 @@
       <c r="B6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3762,7 +3771,7 @@
       <c r="B7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="46" t="s">
         <v>74</v>
       </c>
@@ -3780,10 +3789,10 @@
       <c r="B8" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1">
       <c r="A9" s="64">
@@ -3792,10 +3801,10 @@
       <c r="B9" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1">
       <c r="A10" s="64">
@@ -3804,10 +3813,10 @@
       <c r="B10" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="113"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="1">
       <c r="A11" s="65">
@@ -3816,10 +3825,10 @@
       <c r="B11" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
       <c r="A12" s="65">
@@ -3828,10 +3837,10 @@
       <c r="B12" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="113"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="65">
@@ -3840,10 +3849,10 @@
       <c r="B13" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="113"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1">
       <c r="A14" s="65">
@@ -3852,10 +3861,10 @@
       <c r="B14" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="113"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1">
       <c r="A15" s="65">
@@ -3864,10 +3873,10 @@
       <c r="B15" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1">
       <c r="A16" s="15">
@@ -3876,10 +3885,10 @@
       <c r="B16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="113"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="74"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
       <c r="A17" s="15">
@@ -3888,10 +3897,10 @@
       <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1">
       <c r="A18" s="15">
@@ -3900,10 +3909,10 @@
       <c r="B18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="113"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="74"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1">
       <c r="A19" s="15">
@@ -3912,10 +3921,10 @@
       <c r="B19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="113"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="74"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1">
       <c r="A20" s="15">
@@ -3924,10 +3933,10 @@
       <c r="B20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="39">
@@ -3936,18 +3945,18 @@
       <c r="B21" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="77" t="s">
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="102" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="87" t="s">
@@ -3957,51 +3966,51 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="75" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="69"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="73" t="s">
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="90"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
@@ -2181,7 +2181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2386,35 +2386,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2449,12 +2455,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2467,30 +2467,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2533,13 +2509,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2874,26 +2853,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="80" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="12" t="s">
@@ -2936,8 +2915,8 @@
       <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3149,61 +3128,61 @@
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="88"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="89" t="s">
+      <c r="E24" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="90"/>
+      <c r="F24" s="71"/>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="90"/>
+      <c r="F26" s="71"/>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3214,14 +3193,14 @@
       <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="19.5">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
     </row>
     <row r="30" spans="1:6" ht="19.5">
       <c r="D30" s="33"/>
@@ -3229,12 +3208,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E24:F25"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -3242,6 +3215,12 @@
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E24:F25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3283,26 +3262,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="105" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3317,8 +3296,8 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
@@ -3347,8 +3326,8 @@
       <c r="D6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3564,61 +3543,61 @@
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="88"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59"/>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="89" t="s">
+      <c r="E24" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="90"/>
+      <c r="F24" s="71"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="90"/>
+      <c r="F26" s="71"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3644,18 +3623,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:F27"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3669,7 +3648,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -3697,26 +3676,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="105" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3731,8 +3710,8 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
@@ -3741,7 +3720,7 @@
       <c r="B5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="112" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -3757,12 +3736,12 @@
       <c r="B6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="118"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3771,7 +3750,7 @@
       <c r="B7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="118"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="46" t="s">
         <v>74</v>
       </c>
@@ -3789,10 +3768,10 @@
       <c r="B8" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1">
       <c r="A9" s="64">
@@ -3801,10 +3780,10 @@
       <c r="B9" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1">
       <c r="A10" s="64">
@@ -3813,10 +3792,10 @@
       <c r="B10" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="74"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="1">
       <c r="A11" s="65">
@@ -3825,10 +3804,10 @@
       <c r="B11" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
       <c r="A12" s="65">
@@ -3837,10 +3816,10 @@
       <c r="B12" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="74"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="65">
@@ -3849,10 +3828,10 @@
       <c r="B13" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="74"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1">
       <c r="A14" s="65">
@@ -3861,10 +3840,10 @@
       <c r="B14" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="74"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1">
       <c r="A15" s="65">
@@ -3873,10 +3852,10 @@
       <c r="B15" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1">
       <c r="A16" s="15">
@@ -3885,10 +3864,10 @@
       <c r="B16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="74"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
       <c r="A17" s="15">
@@ -3897,10 +3876,10 @@
       <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1">
       <c r="A18" s="15">
@@ -3909,10 +3888,10 @@
       <c r="B18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="74"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1">
       <c r="A19" s="15">
@@ -3921,10 +3900,10 @@
       <c r="B19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="74"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1">
       <c r="A20" s="15">
@@ -3933,10 +3912,10 @@
       <c r="B20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="39">
@@ -3945,72 +3924,72 @@
       <c r="B21" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="102" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="88"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="100" t="s">
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="89" t="s">
+      <c r="E24" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="90"/>
+      <c r="F24" s="71"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="98" t="s">
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="90"/>
+      <c r="F26" s="71"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BBA43408-CB29-D440-9AC6-79B40A0333E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="18135" windowHeight="8355" activeTab="2"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="18960" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E-003" sheetId="1" r:id="rId1"/>
@@ -1324,15 +1330,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1346,7 +1352,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1508,6 +1514,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2181,7 +2193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2197,7 +2209,7 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2206,10 +2218,10 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2335,7 +2347,7 @@
     <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2392,12 +2404,60 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2422,52 +2482,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2509,21 +2524,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2539,7 +2554,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2581,7 +2596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2613,9 +2628,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2647,6 +2680,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2822,21 +2873,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="37.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -2853,26 +2904,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="82" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="12" t="s">
@@ -2887,8 +2938,8 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A5" s="15">
@@ -2901,8 +2952,8 @@
       <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -2915,8 +2966,8 @@
       <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3128,61 +3179,61 @@
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="71"/>
+      <c r="F24" s="83"/>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="71"/>
+      <c r="F26" s="83"/>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3192,22 +3243,28 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6" ht="19.5">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:6" ht="19">
+      <c r="A29" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-    </row>
-    <row r="30" spans="1:6" ht="19.5">
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+    </row>
+    <row r="30" spans="1:6" ht="19">
       <c r="D30" s="33"/>
       <c r="F30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E24:F25"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -3215,12 +3272,6 @@
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E24:F25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3230,20 +3281,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.83203125" style="11" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="22.5" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="21.25" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="21.1640625" style="11" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="18.5" style="11" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" style="11" customWidth="1" outlineLevel="1"/>
     <col min="8" max="16384" width="9" style="11"/>
@@ -3262,26 +3313,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="97" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3296,8 +3347,8 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
@@ -3312,8 +3363,8 @@
       <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -3326,8 +3377,8 @@
       <c r="D6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3543,61 +3594,61 @@
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59"/>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="71"/>
+      <c r="F24" s="83"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="71"/>
+      <c r="F26" s="83"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3607,7 +3658,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6" ht="19.5">
+    <row r="29" spans="1:6" ht="19">
       <c r="A29" s="53" t="s">
         <v>66</v>
       </c>
@@ -3617,24 +3668,24 @@
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
     </row>
-    <row r="30" spans="1:6" ht="19.5">
+    <row r="30" spans="1:6" ht="19">
       <c r="D30" s="33"/>
       <c r="F30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:F27"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:F27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3644,20 +3695,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.83203125" style="11" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="22.5" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="21.25" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="21.1640625" style="11" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="18.5" style="11" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" style="11" customWidth="1" outlineLevel="1"/>
     <col min="8" max="16384" width="9" style="11"/>
@@ -3676,26 +3727,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="97" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3710,8 +3761,8 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
@@ -3720,14 +3771,14 @@
       <c r="B5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="70" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -3740,8 +3791,8 @@
       <c r="D6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3769,9 +3820,9 @@
         <v>85</v>
       </c>
       <c r="C8" s="68"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1">
       <c r="A9" s="64">
@@ -3781,9 +3832,9 @@
         <v>86</v>
       </c>
       <c r="C9" s="68"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1">
       <c r="A10" s="64">
@@ -3793,9 +3844,9 @@
         <v>57</v>
       </c>
       <c r="C10" s="68"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="1">
       <c r="A11" s="65">
@@ -3805,9 +3856,9 @@
         <v>87</v>
       </c>
       <c r="C11" s="68"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
       <c r="A12" s="65">
@@ -3817,9 +3868,9 @@
         <v>88</v>
       </c>
       <c r="C12" s="68"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="65">
@@ -3829,9 +3880,9 @@
         <v>89</v>
       </c>
       <c r="C13" s="68"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1">
       <c r="A14" s="65">
@@ -3841,9 +3892,9 @@
         <v>90</v>
       </c>
       <c r="C14" s="68"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1">
       <c r="A15" s="65">
@@ -3853,9 +3904,9 @@
         <v>91</v>
       </c>
       <c r="C15" s="68"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1">
       <c r="A16" s="15">
@@ -3865,9 +3916,9 @@
         <v>92</v>
       </c>
       <c r="C16" s="68"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
       <c r="A17" s="15">
@@ -3877,9 +3928,9 @@
         <v>93</v>
       </c>
       <c r="C17" s="68"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1">
       <c r="A18" s="15">
@@ -3889,9 +3940,9 @@
         <v>94</v>
       </c>
       <c r="C18" s="68"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1">
       <c r="A19" s="15">
@@ -3901,9 +3952,9 @@
         <v>76</v>
       </c>
       <c r="C19" s="68"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1">
       <c r="A20" s="15">
@@ -3913,9 +3964,9 @@
         <v>77</v>
       </c>
       <c r="C20" s="68"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="39">
@@ -3925,71 +3976,71 @@
         <v>95</v>
       </c>
       <c r="C21" s="69"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="79" t="s">
+      <c r="B22" s="103"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="77" t="s">
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="71"/>
+      <c r="F24" s="83"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="75" t="s">
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="71"/>
+      <c r="F26" s="83"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BBA43408-CB29-D440-9AC6-79B40A0333E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD318D83-F34D-3D4C-B964-15FAA16B1D36}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="18960" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -2193,7 +2193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2398,14 +2398,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2440,12 +2473,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2458,30 +2485,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2524,17 +2527,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2904,26 +2898,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="73" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="12" t="s">
@@ -2938,8 +2932,8 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A5" s="15">
@@ -2952,8 +2946,8 @@
       <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -2966,8 +2960,8 @@
       <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3179,61 +3173,61 @@
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="81"/>
+      <c r="F22" s="92"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="73"/>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="91" t="s">
+      <c r="D26" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="73"/>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3244,14 +3238,14 @@
       <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="19">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
     </row>
     <row r="30" spans="1:6" ht="19">
       <c r="D30" s="33"/>
@@ -3259,12 +3253,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E24:F25"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="E6:F6"/>
@@ -3272,6 +3260,12 @@
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E24:F25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3313,26 +3307,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="98" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3347,8 +3341,8 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
@@ -3363,8 +3357,8 @@
       <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -3377,8 +3371,8 @@
       <c r="D6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3594,61 +3588,61 @@
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="81"/>
+      <c r="F22" s="92"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59"/>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="73"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="91" t="s">
+      <c r="D26" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="73"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3674,18 +3668,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:F27"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3698,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -3709,7 +3703,7 @@
     <col min="3" max="3" width="10.83203125" style="11" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="22.5" style="11" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="21.1640625" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="18.5" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="24.83203125" style="11" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" style="11" customWidth="1" outlineLevel="1"/>
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
@@ -3727,26 +3721,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="98" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3761,8 +3755,8 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
@@ -3771,14 +3765,12 @@
       <c r="B5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="70" t="s">
-        <v>81</v>
-      </c>
+      <c r="C5" s="111"/>
       <c r="D5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -3787,12 +3779,12 @@
       <c r="B6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3801,7 +3793,7 @@
       <c r="B7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="46" t="s">
         <v>74</v>
       </c>
@@ -3819,10 +3811,10 @@
       <c r="B8" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1">
       <c r="A9" s="64">
@@ -3831,10 +3823,10 @@
       <c r="B9" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1">
       <c r="A10" s="64">
@@ -3843,10 +3835,10 @@
       <c r="B10" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="1">
       <c r="A11" s="65">
@@ -3855,10 +3847,10 @@
       <c r="B11" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
       <c r="A12" s="65">
@@ -3867,10 +3859,10 @@
       <c r="B12" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
       <c r="A13" s="65">
@@ -3879,10 +3871,10 @@
       <c r="B13" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1">
       <c r="A14" s="65">
@@ -3891,10 +3883,10 @@
       <c r="B14" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1">
       <c r="A15" s="65">
@@ -3903,10 +3895,10 @@
       <c r="B15" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1">
       <c r="A16" s="15">
@@ -3915,10 +3907,10 @@
       <c r="B16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
       <c r="A17" s="15">
@@ -3927,10 +3919,10 @@
       <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1">
       <c r="A18" s="15">
@@ -3939,10 +3931,10 @@
       <c r="B18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1">
       <c r="A19" s="15">
@@ -3951,10 +3943,10 @@
       <c r="B19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1">
       <c r="A20" s="15">
@@ -3963,84 +3955,84 @@
       <c r="B20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="C20" s="111"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A21" s="39">
         <v>17</v>
       </c>
       <c r="B21" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
       <c r="A22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="95" t="s">
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="81"/>
+      <c r="F22" s="92"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="93" t="s">
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="73"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="91" t="s">
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="73"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-105-R02A 吹膜工序批生产记录封面.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\Extrusion\A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD318D83-F34D-3D4C-B964-15FAA16B1D36}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="18960" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="465" windowWidth="18960" windowHeight="14100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="E-003" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <r>
       <rPr>
@@ -1118,202 +1117,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SOP-MFG-301-R02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜机组清洁记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R03 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜机组开机前确认表</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R04 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜机组预热参数记录表</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R05 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜工序领料退料记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R07 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜工序生产和检验记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R08 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜工序废品记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R09 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜供料系统运行记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜机组运行记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜岗位交接班记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R12 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜工序清场记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R13 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜工序物料平衡记录</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SOP-MFG-301-R14 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹膜生产日报表</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹膜标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="22"/>
@@ -1330,15 +1133,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1352,7 +1155,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2209,7 +2012,7 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2218,10 +2021,10 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2347,7 +2150,7 @@
     <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2404,12 +2207,15 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2527,12 +2333,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2548,7 +2351,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2623,23 +2426,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2675,23 +2461,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2867,21 +2636,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="11" customWidth="1"/>
     <col min="4" max="4" width="37.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="11" customWidth="1"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -2898,26 +2667,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="84" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="12" t="s">
@@ -2932,8 +2701,8 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A5" s="15">
@@ -2946,8 +2715,8 @@
       <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -2960,8 +2729,8 @@
       <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3173,61 +2942,61 @@
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="92"/>
+      <c r="F22" s="93"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="73"/>
+      <c r="F24" s="74"/>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="73"/>
+      <c r="F26" s="74"/>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3237,17 +3006,17 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6" ht="19">
-      <c r="A29" s="76" t="s">
+    <row r="29" spans="1:6" ht="19.5">
+      <c r="A29" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-    </row>
-    <row r="30" spans="1:6" ht="19">
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.5">
       <c r="D30" s="33"/>
       <c r="F30" s="34"/>
     </row>
@@ -3275,20 +3044,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.875" style="11" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="22.5" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="21.1640625" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="21.125" style="11" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="18.5" style="11" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" style="11" customWidth="1" outlineLevel="1"/>
     <col min="8" max="16384" width="9" style="11"/>
@@ -3307,26 +3076,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="99" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3341,8 +3110,8 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="15">
@@ -3357,8 +3126,8 @@
       <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="19">
@@ -3371,8 +3140,8 @@
       <c r="D6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="A7" s="15">
@@ -3588,61 +3357,61 @@
       </c>
       <c r="B22" s="55"/>
       <c r="C22" s="56"/>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="92"/>
+      <c r="F22" s="93"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59"/>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="73"/>
+      <c r="F24" s="74"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59"/>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="73"/>
+      <c r="F26" s="74"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
     </row>
     <row r="28" spans="1:6" ht="18">
       <c r="A28" s="31"/>
@@ -3652,7 +3421,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6" ht="19">
+    <row r="29" spans="1:6" ht="19.5">
       <c r="A29" s="53" t="s">
         <v>66</v>
       </c>
@@ -3662,7 +3431,7 @@
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
     </row>
-    <row r="30" spans="1:6" ht="19">
+    <row r="30" spans="1:6" ht="19.5">
       <c r="D30" s="33"/>
       <c r="F30" s="34"/>
     </row>
@@ -3689,21 +3458,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="11" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.875" style="11" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="22.5" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="21.1640625" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="24.83203125" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="21.125" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="24.875" style="11" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" style="11" customWidth="1" outlineLevel="1"/>
     <col min="8" max="16384" width="9" style="11"/>
   </cols>
@@ -3721,26 +3490,26 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="110" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="A2" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="99" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="45" t="s">
@@ -3755,45 +3524,33 @@
       <c r="D4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="111"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A6" s="19">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="111"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A7" s="15">
-        <v>3</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="111"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="46" t="s">
         <v>74</v>
       </c>
@@ -3805,169 +3562,113 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A8" s="15">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="111"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="71"/>
       <c r="E8" s="69"/>
       <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A9" s="64">
-        <v>5</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="111"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="71"/>
       <c r="E9" s="69"/>
       <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A10" s="64">
-        <v>6</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="111"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="71"/>
       <c r="E10" s="69"/>
       <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A11" s="65">
-        <v>7</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="111"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="71"/>
       <c r="E11" s="69"/>
       <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A12" s="65">
-        <v>8</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="111"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="71"/>
       <c r="E12" s="69"/>
       <c r="F12" s="70"/>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A13" s="65">
-        <v>9</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="111"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="71"/>
       <c r="E13" s="69"/>
       <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A14" s="65">
-        <v>10</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="111"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="71"/>
       <c r="E14" s="69"/>
       <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A15" s="65">
-        <v>11</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="111"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="71"/>
       <c r="E15" s="69"/>
       <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A16" s="15">
-        <v>12</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="111"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="71"/>
       <c r="E16" s="69"/>
       <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="15">
-        <v>13</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="111"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="71"/>
       <c r="E17" s="69"/>
       <c r="F17" s="70"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A18" s="15">
-        <v>14</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="111"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="71"/>
       <c r="E18" s="69"/>
       <c r="F18" s="70"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A19" s="15">
-        <v>15</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="111"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="71"/>
       <c r="E19" s="69"/>
       <c r="F19" s="70"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A20" s="15">
-        <v>16</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="111"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="71"/>
       <c r="E20" s="69"/>
       <c r="F20" s="70"/>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A21" s="39">
-        <v>17</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="111"/>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="68"/>
       <c r="E21" s="69"/>
       <c r="F21" s="70"/>
@@ -3976,63 +3677,59 @@
       <c r="A22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="81" t="s">
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="92"/>
+      <c r="F22" s="93"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1">
       <c r="A23" s="57"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
       <c r="A24" s="57"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="79" t="s">
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
       <c r="A25" s="57"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
       <c r="A26" s="57"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="77" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="60"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="13">
